--- a/Framework/src/test/java/utility/TestData.xlsx
+++ b/Framework/src/test/java/utility/TestData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -30,25 +30,34 @@
     <t>NewTest</t>
   </si>
   <si>
-    <t>9158833338</t>
-  </si>
-  <si>
-    <t>Successive1</t>
-  </si>
-  <si>
     <t>JKFSJLF</t>
   </si>
   <si>
     <t>FDKJFKDJF</t>
   </si>
   <si>
-    <t>fhf</t>
-  </si>
-  <si>
-    <t>hf</t>
-  </si>
-  <si>
-    <t>hfhg</t>
+    <t>gasg</t>
+  </si>
+  <si>
+    <t>gag</t>
+  </si>
+  <si>
+    <t>ga</t>
+  </si>
+  <si>
+    <t>NgdgdewTest</t>
+  </si>
+  <si>
+    <t>user1</t>
+  </si>
+  <si>
+    <t>pass1</t>
+  </si>
+  <si>
+    <t>fhgfhg</t>
+  </si>
+  <si>
+    <t>hjh</t>
   </si>
 </sst>
 </file>
@@ -381,10 +390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -393,7 +402,7 @@
     <col min="3" max="3" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -407,21 +416,20 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>4</v>
@@ -430,31 +438,33 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7">
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>10</v>
-      </c>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Framework/src/test/java/utility/TestData.xlsx
+++ b/Framework/src/test/java/utility/TestData.xlsx
@@ -393,7 +393,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Framework/src/test/java/utility/TestData.xlsx
+++ b/Framework/src/test/java/utility/TestData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="50">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -54,10 +54,118 @@
     <t>pass1</t>
   </si>
   <si>
-    <t>fhgfhg</t>
-  </si>
-  <si>
-    <t>hjh</t>
+    <t>user2</t>
+  </si>
+  <si>
+    <t>user3</t>
+  </si>
+  <si>
+    <t>user4</t>
+  </si>
+  <si>
+    <t>user5</t>
+  </si>
+  <si>
+    <t>user6</t>
+  </si>
+  <si>
+    <t>user7</t>
+  </si>
+  <si>
+    <t>user8</t>
+  </si>
+  <si>
+    <t>user9</t>
+  </si>
+  <si>
+    <t>user10</t>
+  </si>
+  <si>
+    <t>user11</t>
+  </si>
+  <si>
+    <t>user12</t>
+  </si>
+  <si>
+    <t>user13</t>
+  </si>
+  <si>
+    <t>user14</t>
+  </si>
+  <si>
+    <t>user15</t>
+  </si>
+  <si>
+    <t>user16</t>
+  </si>
+  <si>
+    <t>user17</t>
+  </si>
+  <si>
+    <t>user18</t>
+  </si>
+  <si>
+    <t>user19</t>
+  </si>
+  <si>
+    <t>user20</t>
+  </si>
+  <si>
+    <t>pass2</t>
+  </si>
+  <si>
+    <t>pass3</t>
+  </si>
+  <si>
+    <t>pass4</t>
+  </si>
+  <si>
+    <t>pass5</t>
+  </si>
+  <si>
+    <t>pass6</t>
+  </si>
+  <si>
+    <t>pass7</t>
+  </si>
+  <si>
+    <t>pass8</t>
+  </si>
+  <si>
+    <t>pass9</t>
+  </si>
+  <si>
+    <t>pass10</t>
+  </si>
+  <si>
+    <t>pass11</t>
+  </si>
+  <si>
+    <t>pass12</t>
+  </si>
+  <si>
+    <t>pass13</t>
+  </si>
+  <si>
+    <t>pass14</t>
+  </si>
+  <si>
+    <t>pass15</t>
+  </si>
+  <si>
+    <t>pass16</t>
+  </si>
+  <si>
+    <t>pass17</t>
+  </si>
+  <si>
+    <t>pass18</t>
+  </si>
+  <si>
+    <t>pass19</t>
+  </si>
+  <si>
+    <t>pass20</t>
   </si>
 </sst>
 </file>
@@ -390,10 +498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -452,19 +560,212 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>49</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Framework/src/test/java/utility/TestData.xlsx
+++ b/Framework/src/test/java/utility/TestData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -52,120 +52,6 @@
   </si>
   <si>
     <t>pass1</t>
-  </si>
-  <si>
-    <t>user2</t>
-  </si>
-  <si>
-    <t>user3</t>
-  </si>
-  <si>
-    <t>user4</t>
-  </si>
-  <si>
-    <t>user5</t>
-  </si>
-  <si>
-    <t>user6</t>
-  </si>
-  <si>
-    <t>user7</t>
-  </si>
-  <si>
-    <t>user8</t>
-  </si>
-  <si>
-    <t>user9</t>
-  </si>
-  <si>
-    <t>user10</t>
-  </si>
-  <si>
-    <t>user11</t>
-  </si>
-  <si>
-    <t>user12</t>
-  </si>
-  <si>
-    <t>user13</t>
-  </si>
-  <si>
-    <t>user14</t>
-  </si>
-  <si>
-    <t>user15</t>
-  </si>
-  <si>
-    <t>user16</t>
-  </si>
-  <si>
-    <t>user17</t>
-  </si>
-  <si>
-    <t>user18</t>
-  </si>
-  <si>
-    <t>user19</t>
-  </si>
-  <si>
-    <t>user20</t>
-  </si>
-  <si>
-    <t>pass2</t>
-  </si>
-  <si>
-    <t>pass3</t>
-  </si>
-  <si>
-    <t>pass4</t>
-  </si>
-  <si>
-    <t>pass5</t>
-  </si>
-  <si>
-    <t>pass6</t>
-  </si>
-  <si>
-    <t>pass7</t>
-  </si>
-  <si>
-    <t>pass8</t>
-  </si>
-  <si>
-    <t>pass9</t>
-  </si>
-  <si>
-    <t>pass10</t>
-  </si>
-  <si>
-    <t>pass11</t>
-  </si>
-  <si>
-    <t>pass12</t>
-  </si>
-  <si>
-    <t>pass13</t>
-  </si>
-  <si>
-    <t>pass14</t>
-  </si>
-  <si>
-    <t>pass15</t>
-  </si>
-  <si>
-    <t>pass16</t>
-  </si>
-  <si>
-    <t>pass17</t>
-  </si>
-  <si>
-    <t>pass18</t>
-  </si>
-  <si>
-    <t>pass19</t>
-  </si>
-  <si>
-    <t>pass20</t>
   </si>
 </sst>
 </file>
@@ -498,10 +384,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -558,215 +444,6 @@
       </c>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Framework/src/test/java/utility/TestData.xlsx
+++ b/Framework/src/test/java/utility/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="16800" windowHeight="2250"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -52,6 +52,24 @@
   </si>
   <si>
     <t>pass1</t>
+  </si>
+  <si>
+    <t>user2</t>
+  </si>
+  <si>
+    <t>user3</t>
+  </si>
+  <si>
+    <t>user4</t>
+  </si>
+  <si>
+    <t>pass2</t>
+  </si>
+  <si>
+    <t>pass3</t>
+  </si>
+  <si>
+    <t>pass4</t>
   </si>
 </sst>
 </file>
@@ -384,14 +402,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="27.28515625" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.85546875" customWidth="1"/>
   </cols>
@@ -443,6 +462,39 @@
         <v>11</v>
       </c>
       <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Framework/src/test/java/utility/TestData.xlsx
+++ b/Framework/src/test/java/utility/TestData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -70,6 +70,24 @@
   </si>
   <si>
     <t>pass4</t>
+  </si>
+  <si>
+    <t>CheCkLogin</t>
+  </si>
+  <si>
+    <t>9158833338</t>
+  </si>
+  <si>
+    <t>Successive1</t>
+  </si>
+  <si>
+    <t>CheckLoginFailure</t>
+  </si>
+  <si>
+    <t>gdg</t>
+  </si>
+  <si>
+    <t>gdsgs</t>
   </si>
 </sst>
 </file>
@@ -402,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -496,6 +514,28 @@
         <v>17</v>
       </c>
     </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Framework/src/test/java/utility/TestData.xlsx
+++ b/Framework/src/test/java/utility/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="16800" windowHeight="2250"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="15270" windowHeight="3720"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -75,19 +75,25 @@
     <t>CheCkLogin</t>
   </si>
   <si>
-    <t>9158833338</t>
-  </si>
-  <si>
     <t>Successive1</t>
   </si>
   <si>
     <t>CheckLoginFailure</t>
   </si>
   <si>
-    <t>gdg</t>
-  </si>
-  <si>
     <t>gdsgs</t>
+  </si>
+  <si>
+    <t>fhg</t>
+  </si>
+  <si>
+    <t>nmb</t>
+  </si>
+  <si>
+    <t>user5</t>
+  </si>
+  <si>
+    <t>ffs</t>
   </si>
 </sst>
 </file>
@@ -420,10 +426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -494,7 +500,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>13</v>
@@ -505,7 +511,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>14</v>
@@ -519,21 +525,54 @@
         <v>18</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>23</v>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
